--- a/OVERALL_ATTENDANCE_Power System Analysis-Fall 2022.xlsx
+++ b/OVERALL_ATTENDANCE_Power System Analysis-Fall 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F17AF-2A2C-4816-A79B-E3B2E9F0486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3E588-274C-4C21-9F98-A0C67476C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -309,15 +309,15 @@
     <t>October 2022</t>
   </si>
   <si>
-    <t>November 2022</t>
-  </si>
-  <si>
     <t>03: PM To
 06: 00 PM</t>
   </si>
   <si>
+    <t>November _December 2022</t>
+  </si>
+  <si>
     <t>12: PM To
-063 00 PM</t>
+03 00 PM</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,16 +915,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,6 +951,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -973,17 +966,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1005,6 +993,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,106 +1604,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1714,10 +1717,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -1729,16 +1732,16 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -1748,12 +1751,12 @@
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -1773,19 +1776,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2620,16 +2623,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="68"/>
+      <c r="D55" s="85"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="68" t="s">
+      <c r="H55" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="68"/>
+      <c r="I55" s="85"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2649,6 +2652,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2660,16 +2673,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2707,118 +2710,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2832,10 +2835,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -2857,16 +2860,16 @@
         <v>44792</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -2886,12 +2889,12 @@
         <v>29</v>
       </c>
       <c r="I11" s="34"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -2921,19 +2924,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3959,16 +3962,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="68"/>
+      <c r="D44" s="85"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="68" t="s">
+      <c r="H44" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="68"/>
+      <c r="I44" s="85"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -3988,12 +3991,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -4003,12 +4006,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4045,118 +4048,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4170,10 +4173,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -4195,16 +4198,16 @@
         <v>30</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
@@ -4224,12 +4227,12 @@
         <v>29</v>
       </c>
       <c r="I11" s="34"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -4259,19 +4262,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -5297,16 +5300,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="68"/>
+      <c r="D44" s="85"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="68" t="s">
+      <c r="H44" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="68"/>
+      <c r="I44" s="85"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -5326,12 +5329,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -5341,12 +5344,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -5362,8 +5365,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5383,118 +5386,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -5508,10 +5511,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="71" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -5529,49 +5532,49 @@
       <c r="G10" s="32">
         <v>26</v>
       </c>
-      <c r="H10" s="32">
-        <v>3</v>
-      </c>
-      <c r="I10" s="32">
-        <v>3</v>
-      </c>
-      <c r="J10" s="86" t="s">
+      <c r="H10" s="99">
+        <v>44898</v>
+      </c>
+      <c r="I10" s="99">
+        <v>44898</v>
+      </c>
+      <c r="J10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>89</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="J11" s="84"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
@@ -5603,19 +5606,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -7077,16 +7080,16 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="68"/>
+      <c r="D64" s="85"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="68" t="s">
+      <c r="H64" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="68"/>
+      <c r="I64" s="85"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>
@@ -7106,12 +7109,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -7121,12 +7124,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -7142,7 +7145,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:I3"/>
     </sheetView>
   </sheetViews>
@@ -7164,103 +7167,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="70" t="s">
+      <c r="D3" s="98"/>
+      <c r="E3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="70" t="s">
+      <c r="D5" s="98"/>
+      <c r="E5" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="85" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -7274,56 +7277,56 @@
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="98">
+      <c r="C9" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="94">
         <f>August!E5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="98" t="str">
+      <c r="E9" s="94" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="98" t="str">
+      <c r="F9" s="94" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="98" t="str">
+      <c r="G9" s="94" t="str">
         <f>November!E5</f>
-        <v>November 2022</v>
-      </c>
-      <c r="H9" s="86" t="s">
+        <v>November _December 2022</v>
+      </c>
+      <c r="H9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="96" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="90"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
@@ -7351,7 +7354,7 @@
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="90"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -8496,15 +8499,15 @@
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="68"/>
+      <c r="D43" s="85"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="95"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
@@ -8520,15 +8523,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="J9:J11"/>
@@ -8544,6 +8538,15 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
